--- a/experiment_results/DataV2_0.5/ZipMe/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_0.5/ZipMe/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -1254,10 +1254,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>3.019844693701467</v>
+        <v>2.890422778257118</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -3398,10 +3398,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>2.976704055220017</v>
+        <v>3.019844693701467</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -3892,19 +3892,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.2157031924072476</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -4082,10 +4082,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>0.5998286203941731</v>
+        <v>0.8140531276778064</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -4196,19 +4196,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D35">
-        <v>5.133735979292493</v>
+        <v>5.43572044866264</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>0.5608283002588439</v>
+        <v>1.207937877480587</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -5238,19 +5238,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>1.639344262295082</v>
+        <v>1.553062985332183</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>2.113891285591027</v>
+        <v>1.984469370146678</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -6036,19 +6036,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.2157031924072476</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -6226,10 +6226,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>0.5998286203941731</v>
+        <v>0.8140531276778064</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -6340,19 +6340,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D35">
-        <v>5.780845556514237</v>
+        <v>5.694564279551337</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G35">
-        <v>2.71786022433132</v>
+        <v>2.372735116479724</v>
       </c>
       <c r="H35">
         <v>105</v>
@@ -7344,19 +7344,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>4.055220017256255</v>
+        <v>4.098360655737705</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G5">
-        <v>6.125970664365832</v>
+        <v>6.212251941328732</v>
       </c>
       <c r="H5">
         <v>164</v>
@@ -7391,10 +7391,10 @@
         <v>185</v>
       </c>
       <c r="F6">
-        <v>83</v>
+        <v>1355</v>
       </c>
       <c r="G6">
-        <v>3.580672993960311</v>
+        <v>58.45556514236411</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -7800,19 +7800,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -7838,19 +7838,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>88</v>
+        <v>1570</v>
       </c>
       <c r="D18">
-        <v>3.796376186367558</v>
+        <v>67.73080241587576</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>88</v>
+        <v>1570</v>
       </c>
       <c r="G18">
-        <v>3.796376186367558</v>
+        <v>67.73080241587576</v>
       </c>
       <c r="H18">
         <v>1828</v>
@@ -7876,19 +7876,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>1202</v>
       </c>
       <c r="D19">
-        <v>0.3448275862068966</v>
+        <v>51.81034482758621</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>1202</v>
       </c>
       <c r="G19">
-        <v>0.3448275862068966</v>
+        <v>51.81034482758621</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -8180,19 +8180,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>0.2157031924072476</v>
+        <v>1.078515962036238</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G27">
-        <v>0.3451251078515962</v>
+        <v>1.682484900776531</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -8446,19 +8446,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>1176</v>
       </c>
       <c r="D34">
-        <v>2.362542955326461</v>
+        <v>50.51546391752577</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>55</v>
+        <v>1176</v>
       </c>
       <c r="G34">
-        <v>2.362542955326461</v>
+        <v>50.51546391752577</v>
       </c>
       <c r="H34">
         <v>1633</v>
@@ -8484,19 +8484,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D35">
-        <v>5.43572044866264</v>
+        <v>5.823986194995686</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G35">
-        <v>1.207937877480587</v>
+        <v>2.372735116479724</v>
       </c>
       <c r="H35">
         <v>123</v>
@@ -8712,19 +8712,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>92</v>
+        <v>1567</v>
       </c>
       <c r="D41">
-        <v>3.968938740293356</v>
+        <v>67.6013805004314</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>92</v>
+        <v>1567</v>
       </c>
       <c r="G41">
-        <v>3.968938740293356</v>
+        <v>67.6013805004314</v>
       </c>
       <c r="H41">
         <v>2138</v>
@@ -8750,19 +8750,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>1165</v>
       </c>
       <c r="D42">
-        <v>2.588438308886972</v>
+        <v>50.2588438308887</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>60</v>
+        <v>1165</v>
       </c>
       <c r="G42">
-        <v>2.588438308886972</v>
+        <v>50.2588438308887</v>
       </c>
       <c r="H42">
         <v>42</v>
@@ -8864,19 +8864,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>105</v>
+        <v>1455</v>
       </c>
       <c r="D45">
-        <v>4.5297670405522</v>
+        <v>62.76962899050906</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>105</v>
+        <v>1455</v>
       </c>
       <c r="G45">
-        <v>4.5297670405522</v>
+        <v>62.76962899050906</v>
       </c>
       <c r="H45">
         <v>2177</v>
@@ -9282,19 +9282,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>90</v>
+        <v>1565</v>
       </c>
       <c r="D56">
-        <v>3.882657463330457</v>
+        <v>67.51509922346851</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>90</v>
+        <v>1565</v>
       </c>
       <c r="G56">
-        <v>3.882657463330457</v>
+        <v>67.51509922346851</v>
       </c>
       <c r="H56">
         <v>1828</v>
@@ -9488,19 +9488,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>4.055220017256255</v>
+        <v>4.098360655737705</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G5">
-        <v>6.125970664365832</v>
+        <v>6.212251941328732</v>
       </c>
       <c r="H5">
         <v>164</v>
@@ -9535,10 +9535,10 @@
         <v>185</v>
       </c>
       <c r="F6">
-        <v>83</v>
+        <v>1355</v>
       </c>
       <c r="G6">
-        <v>3.580672993960311</v>
+        <v>58.45556514236411</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -9944,19 +9944,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -9982,19 +9982,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>88</v>
+        <v>1570</v>
       </c>
       <c r="D18">
-        <v>3.796376186367558</v>
+        <v>67.73080241587576</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>88</v>
+        <v>1570</v>
       </c>
       <c r="G18">
-        <v>3.796376186367558</v>
+        <v>67.73080241587576</v>
       </c>
       <c r="H18">
         <v>1828</v>
@@ -10020,19 +10020,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>1202</v>
       </c>
       <c r="D19">
-        <v>0.3448275862068966</v>
+        <v>51.81034482758621</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>1202</v>
       </c>
       <c r="G19">
-        <v>0.3448275862068966</v>
+        <v>51.81034482758621</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -10324,19 +10324,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>0.2157031924072476</v>
+        <v>1.078515962036238</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G27">
-        <v>0.3451251078515962</v>
+        <v>1.682484900776531</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -10590,19 +10590,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>1176</v>
       </c>
       <c r="D34">
-        <v>2.362542955326461</v>
+        <v>50.51546391752577</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>55</v>
+        <v>1176</v>
       </c>
       <c r="G34">
-        <v>2.362542955326461</v>
+        <v>50.51546391752577</v>
       </c>
       <c r="H34">
         <v>1633</v>
@@ -10628,19 +10628,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D35">
-        <v>5.43572044866264</v>
+        <v>5.823986194995686</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G35">
-        <v>1.207937877480587</v>
+        <v>2.372735116479724</v>
       </c>
       <c r="H35">
         <v>123</v>
@@ -10856,19 +10856,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>92</v>
+        <v>1567</v>
       </c>
       <c r="D41">
-        <v>3.968938740293356</v>
+        <v>67.6013805004314</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>92</v>
+        <v>1567</v>
       </c>
       <c r="G41">
-        <v>3.968938740293356</v>
+        <v>67.6013805004314</v>
       </c>
       <c r="H41">
         <v>2138</v>
@@ -10894,19 +10894,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>1165</v>
       </c>
       <c r="D42">
-        <v>2.588438308886972</v>
+        <v>50.2588438308887</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>60</v>
+        <v>1165</v>
       </c>
       <c r="G42">
-        <v>2.588438308886972</v>
+        <v>50.2588438308887</v>
       </c>
       <c r="H42">
         <v>42</v>
@@ -11008,19 +11008,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>105</v>
+        <v>1455</v>
       </c>
       <c r="D45">
-        <v>4.5297670405522</v>
+        <v>62.76962899050906</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>105</v>
+        <v>1455</v>
       </c>
       <c r="G45">
-        <v>4.5297670405522</v>
+        <v>62.76962899050906</v>
       </c>
       <c r="H45">
         <v>2177</v>
@@ -11426,19 +11426,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>90</v>
+        <v>1565</v>
       </c>
       <c r="D56">
-        <v>3.882657463330457</v>
+        <v>67.51509922346851</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>90</v>
+        <v>1565</v>
       </c>
       <c r="G56">
-        <v>3.882657463330457</v>
+        <v>67.51509922346851</v>
       </c>
       <c r="H56">
         <v>1828</v>
@@ -11632,10 +11632,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>3.925798101811907</v>
+        <v>4.012079378774805</v>
       </c>
       <c r="E5">
         <v>117</v>
@@ -11670,19 +11670,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>1.251078515962036</v>
+        <v>1.207937877480587</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>1.466781708369284</v>
+        <v>1.423641069887834</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -11784,19 +11784,19 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>0.4314063848144953</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="E9">
         <v>87</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>0.6471095772217429</v>
+        <v>1.380500431406385</v>
       </c>
       <c r="H9">
         <v>21</v>
@@ -11974,10 +11974,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14">
-        <v>3.451251078515962</v>
+        <v>3.537532355478861</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -12658,10 +12658,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>0.5998286203941731</v>
+        <v>0.8140531276778064</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -13152,19 +13152,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>4.270923209663503</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>4.270923209663503</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>122</v>
@@ -18064,19 +18064,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>2.976704055220017</v>
+        <v>3.62381363244176</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G5">
-        <v>4.5297670405522</v>
+        <v>5.52200172562554</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -18102,19 +18102,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>1.596203623813633</v>
+        <v>1.768766177739431</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>1417</v>
       </c>
       <c r="G6">
-        <v>1.898188093183779</v>
+        <v>61.13028472821398</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -18406,19 +18406,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>2.415875754961173</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G14">
-        <v>3.580672993960311</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -18520,19 +18520,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -18558,19 +18558,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1513</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>65.27178602243313</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>1513</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>65.27178602243313</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -18596,19 +18596,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1413</v>
       </c>
       <c r="D19">
-        <v>0.3879310344827586</v>
+        <v>60.90517241379311</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>1413</v>
       </c>
       <c r="G19">
-        <v>0.3879310344827586</v>
+        <v>60.90517241379311</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -18900,19 +18900,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.90595340811044</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -18938,19 +18938,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="D28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="G28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -18976,19 +18976,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1007</v>
       </c>
       <c r="D29">
-        <v>0.1718213058419244</v>
+        <v>43.25601374570447</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1007</v>
       </c>
       <c r="G29">
-        <v>0.1718213058419244</v>
+        <v>43.25601374570447</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -19166,19 +19166,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>1262</v>
       </c>
       <c r="D34">
-        <v>1.804123711340206</v>
+        <v>54.20962199312714</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>1262</v>
       </c>
       <c r="G34">
-        <v>1.804123711340206</v>
+        <v>54.20962199312714</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -19204,19 +19204,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D35">
-        <v>5.133735979292493</v>
+        <v>5.43572044866264</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G35">
-        <v>0.5176876617773942</v>
+        <v>1.164797238999137</v>
       </c>
       <c r="H35">
         <v>2164</v>
@@ -19432,19 +19432,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>1580</v>
       </c>
       <c r="D41">
-        <v>3.235547886108715</v>
+        <v>68.16220880069025</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>1580</v>
       </c>
       <c r="G41">
-        <v>3.235547886108715</v>
+        <v>68.16220880069025</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -19470,19 +19470,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>1346</v>
       </c>
       <c r="D42">
-        <v>2.286453839516825</v>
+        <v>58.06729939603106</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>53</v>
+        <v>1346</v>
       </c>
       <c r="G42">
-        <v>2.286453839516825</v>
+        <v>58.06729939603106</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -19584,19 +19584,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1806</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>77.91199309749784</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1806</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>77.91199309749784</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -19736,19 +19736,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="D49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="G49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -20002,19 +20002,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1513</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>65.27178602243313</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>1513</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>65.27178602243313</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -20246,19 +20246,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>1.553062985332183</v>
+        <v>1.337359792924935</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>1.855047454702329</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -21234,10 +21234,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>0.6855184233076265</v>
+        <v>0.8140531276778064</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -21576,19 +21576,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D41">
-        <v>3.321829163071614</v>
+        <v>3.494391716997411</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G41">
-        <v>3.321829163071614</v>
+        <v>3.494391716997411</v>
       </c>
       <c r="H41">
         <v>115</v>
@@ -22694,10 +22694,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>2.976704055220017</v>
+        <v>3.019844693701467</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -23188,19 +23188,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.2157031924072476</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -23378,10 +23378,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>0.5998286203941731</v>
+        <v>0.8140531276778064</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -23492,19 +23492,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D35">
-        <v>5.133735979292493</v>
+        <v>5.43572044866264</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>0.5608283002588439</v>
+        <v>1.207937877480587</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -24838,19 +24838,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>2.67471958584987</v>
+        <v>2.76100086281277</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G14">
-        <v>4.012079378774805</v>
+        <v>4.270923209663503</v>
       </c>
       <c r="H14">
         <v>118</v>
@@ -25522,19 +25522,19 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>0.6426735218508998</v>
+        <v>0.8140531276778064</v>
       </c>
       <c r="E32">
         <v>34</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32">
-        <v>1.199657240788346</v>
+        <v>1.242502142245073</v>
       </c>
       <c r="H32">
         <v>32</v>
@@ -25645,10 +25645,10 @@
         <v>116</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>0.5176876617773942</v>
+        <v>0.5608283002588439</v>
       </c>
       <c r="H35">
         <v>79</v>
@@ -26640,19 +26640,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>3.149266609145815</v>
+        <v>3.62381363244176</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G5">
-        <v>4.745470232959448</v>
+        <v>5.608283002588439</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -26678,19 +26678,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>1.596203623813633</v>
+        <v>1.855047454702329</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>1406</v>
       </c>
       <c r="G6">
-        <v>1.898188093183779</v>
+        <v>60.65573770491803</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -26982,19 +26982,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>2.588438308886972</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G14">
-        <v>3.796376186367558</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -27096,19 +27096,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -27134,19 +27134,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1521</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>65.61691113028473</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>1521</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>65.61691113028473</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -27172,19 +27172,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1402</v>
       </c>
       <c r="D19">
-        <v>0.3879310344827586</v>
+        <v>60.43103448275862</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>1402</v>
       </c>
       <c r="G19">
-        <v>0.3879310344827586</v>
+        <v>60.43103448275862</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -27476,19 +27476,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.90595340811044</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -27514,19 +27514,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="D28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="G28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -27552,19 +27552,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="D29">
-        <v>0.1718213058419244</v>
+        <v>55.28350515463918</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="G29">
-        <v>0.1718213058419244</v>
+        <v>55.28350515463918</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -27742,19 +27742,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>1261</v>
       </c>
       <c r="D34">
-        <v>1.804123711340206</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>1261</v>
       </c>
       <c r="G34">
-        <v>1.804123711340206</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -28008,19 +28008,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>1866</v>
       </c>
       <c r="D41">
-        <v>3.235547886108715</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>1866</v>
       </c>
       <c r="G41">
-        <v>3.235547886108715</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -28046,19 +28046,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="D42">
-        <v>2.415875754961173</v>
+        <v>57.98101811906816</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="G42">
-        <v>2.415875754961173</v>
+        <v>57.98101811906816</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -28160,19 +28160,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>83.00258843830889</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>83.00258843830889</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -28312,19 +28312,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="D49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="G49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -28578,19 +28578,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>65.87575496117343</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>65.87575496117343</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -28784,19 +28784,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>3.149266609145815</v>
+        <v>3.62381363244176</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G5">
-        <v>4.745470232959448</v>
+        <v>5.608283002588439</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -28822,19 +28822,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>1.596203623813633</v>
+        <v>1.855047454702329</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>1406</v>
       </c>
       <c r="G6">
-        <v>1.898188093183779</v>
+        <v>60.65573770491803</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -29126,19 +29126,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>2.588438308886972</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G14">
-        <v>3.796376186367558</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -29240,19 +29240,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -29278,19 +29278,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1521</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>65.61691113028473</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>1521</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>65.61691113028473</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -29316,19 +29316,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1402</v>
       </c>
       <c r="D19">
-        <v>0.3879310344827586</v>
+        <v>60.43103448275862</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>1402</v>
       </c>
       <c r="G19">
-        <v>0.3879310344827586</v>
+        <v>60.43103448275862</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -29620,19 +29620,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.90595340811044</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -29658,19 +29658,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="D28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="G28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -29696,19 +29696,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="D29">
-        <v>0.1718213058419244</v>
+        <v>55.28350515463918</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="G29">
-        <v>0.1718213058419244</v>
+        <v>55.28350515463918</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -29886,19 +29886,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>1261</v>
       </c>
       <c r="D34">
-        <v>1.804123711340206</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>1261</v>
       </c>
       <c r="G34">
-        <v>1.804123711340206</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -30152,19 +30152,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>1866</v>
       </c>
       <c r="D41">
-        <v>3.235547886108715</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>1866</v>
       </c>
       <c r="G41">
-        <v>3.235547886108715</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -30190,19 +30190,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="D42">
-        <v>2.415875754961173</v>
+        <v>57.98101811906816</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="G42">
-        <v>2.415875754961173</v>
+        <v>57.98101811906816</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -30304,19 +30304,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>83.00258843830889</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>83.00258843830889</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -30456,19 +30456,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="D49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="G49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -30722,19 +30722,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>65.87575496117343</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>65.87575496117343</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -30928,19 +30928,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>2.976704055220017</v>
+        <v>3.66695427092321</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>105</v>
+        <v>1026</v>
       </c>
       <c r="G5">
-        <v>4.5297670405522</v>
+        <v>44.26229508196721</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -30966,19 +30966,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>1.466781708369284</v>
+        <v>1.596203623813633</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>1362</v>
       </c>
       <c r="G6">
-        <v>1.725625539257981</v>
+        <v>58.75754961173425</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -31270,19 +31270,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>2.459016393442623</v>
+        <v>3.106125970664366</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="G14">
-        <v>3.66695427092321</v>
+        <v>4.788610871440897</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -31384,19 +31384,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -31422,19 +31422,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1468</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>63.3304572907679</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>1468</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>63.3304572907679</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -31460,19 +31460,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1398</v>
       </c>
       <c r="D19">
-        <v>0.3879310344827586</v>
+        <v>60.25862068965517</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>1398</v>
       </c>
       <c r="G19">
-        <v>0.3879310344827586</v>
+        <v>60.25862068965517</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -31764,19 +31764,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>2.113891285591027</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -31802,19 +31802,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="D28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="G28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -31840,19 +31840,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1007</v>
       </c>
       <c r="D29">
-        <v>0.1718213058419244</v>
+        <v>43.25601374570447</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1007</v>
       </c>
       <c r="G29">
-        <v>0.1718213058419244</v>
+        <v>43.25601374570447</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -32030,19 +32030,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>1266</v>
       </c>
       <c r="D34">
-        <v>1.804123711340206</v>
+        <v>54.38144329896907</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>1266</v>
       </c>
       <c r="G34">
-        <v>1.804123711340206</v>
+        <v>54.38144329896907</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -32068,19 +32068,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D35">
-        <v>5.133735979292493</v>
+        <v>5.47886108714409</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>0.5176876617773942</v>
+        <v>1.380500431406385</v>
       </c>
       <c r="H35">
         <v>2164</v>
@@ -32296,19 +32296,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>1505</v>
       </c>
       <c r="D41">
-        <v>3.235547886108715</v>
+        <v>64.92666091458153</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>1505</v>
       </c>
       <c r="G41">
-        <v>3.235547886108715</v>
+        <v>64.92666091458153</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -32334,19 +32334,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="D42">
-        <v>2.286453839516825</v>
+        <v>52.50215703192407</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>53</v>
+        <v>1217</v>
       </c>
       <c r="G42">
-        <v>2.286453839516825</v>
+        <v>52.50215703192407</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -32448,19 +32448,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1472</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>63.5030198446937</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1472</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>63.5030198446937</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -32600,19 +32600,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="D49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="G49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -32866,19 +32866,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1468</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>63.3304572907679</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>1468</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>63.3304572907679</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -33566,19 +33566,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>1.984469370146678</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>1.984469370146678</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>42</v>
@@ -34098,10 +34098,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>0.5998286203941731</v>
+        <v>0.6855184233076265</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -34221,10 +34221,10 @@
         <v>116</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>0.5176876617773942</v>
+        <v>0.5608283002588439</v>
       </c>
       <c r="H35">
         <v>14</v>
@@ -35216,19 +35216,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>3.66695427092321</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>5.349439171699741</v>
+        <v>5.565142364106989</v>
       </c>
       <c r="H5">
         <v>128</v>
@@ -35254,19 +35254,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>1.941328731665229</v>
+        <v>1.121656600517688</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G6">
-        <v>2.329594477998274</v>
+        <v>3.192407247627265</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -35558,19 +35558,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>3.019844693701467</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G14">
-        <v>4.443485763589301</v>
+        <v>4.659188955996549</v>
       </c>
       <c r="H14">
         <v>109</v>
@@ -36356,19 +36356,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D35">
-        <v>5.392579810181191</v>
+        <v>5.090595340811044</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>1.035375323554788</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H35">
         <v>50</v>
@@ -36736,19 +36736,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>4.270923209663503</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>4.270923209663503</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>95</v>
@@ -37154,19 +37154,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H56">
         <v>42</v>
@@ -37360,19 +37360,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>3.149266609145815</v>
+        <v>3.62381363244176</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G5">
-        <v>4.745470232959448</v>
+        <v>5.608283002588439</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -37398,19 +37398,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>1.596203623813633</v>
+        <v>1.855047454702329</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>1406</v>
       </c>
       <c r="G6">
-        <v>1.898188093183779</v>
+        <v>60.65573770491803</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -37702,19 +37702,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>2.588438308886972</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G14">
-        <v>3.796376186367558</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -37816,19 +37816,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -37854,19 +37854,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1521</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>65.61691113028473</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>1521</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>65.61691113028473</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -37892,19 +37892,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1402</v>
       </c>
       <c r="D19">
-        <v>0.3879310344827586</v>
+        <v>60.43103448275862</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>1402</v>
       </c>
       <c r="G19">
-        <v>0.3879310344827586</v>
+        <v>60.43103448275862</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -38196,19 +38196,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.90595340811044</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -38234,19 +38234,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="D28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="G28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -38272,19 +38272,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="D29">
-        <v>0.1718213058419244</v>
+        <v>55.28350515463918</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="G29">
-        <v>0.1718213058419244</v>
+        <v>55.28350515463918</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -38462,19 +38462,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>1261</v>
       </c>
       <c r="D34">
-        <v>1.804123711340206</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>1261</v>
       </c>
       <c r="G34">
-        <v>1.804123711340206</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -38728,19 +38728,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>1866</v>
       </c>
       <c r="D41">
-        <v>3.235547886108715</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>1866</v>
       </c>
       <c r="G41">
-        <v>3.235547886108715</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -38766,19 +38766,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="D42">
-        <v>2.415875754961173</v>
+        <v>57.98101811906816</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="G42">
-        <v>2.415875754961173</v>
+        <v>57.98101811906816</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -38880,19 +38880,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>83.00258843830889</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>83.00258843830889</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -39032,19 +39032,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="D49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="G49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -39298,19 +39298,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>65.87575496117343</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>65.87575496117343</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -39504,19 +39504,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>3.106125970664366</v>
+        <v>3.537532355478861</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G5">
-        <v>4.6160483175151</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H5">
         <v>148</v>
@@ -39542,19 +39542,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>1.466781708369284</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>41</v>
+        <v>1228</v>
       </c>
       <c r="G6">
-        <v>1.768766177739431</v>
+        <v>52.97670405522001</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -39846,19 +39846,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>2.631578947368421</v>
+        <v>3.019844693701467</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G14">
-        <v>3.882657463330457</v>
+        <v>4.443485763589301</v>
       </c>
       <c r="H14">
         <v>111</v>
@@ -39960,19 +39960,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -39998,19 +39998,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1180</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>50.90595340811043</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>1180</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>50.90595340811043</v>
       </c>
       <c r="H18">
         <v>1968</v>
@@ -40036,19 +40036,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>1377</v>
       </c>
       <c r="D19">
-        <v>0.3017241379310345</v>
+        <v>59.35344827586206</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>1377</v>
       </c>
       <c r="G19">
-        <v>0.3017241379310345</v>
+        <v>59.35344827586206</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -40340,19 +40340,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.90595340811044</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -40416,19 +40416,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>920</v>
       </c>
       <c r="D29">
-        <v>0.1718213058419244</v>
+        <v>39.51890034364261</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>920</v>
       </c>
       <c r="G29">
-        <v>0.1718213058419244</v>
+        <v>39.51890034364261</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -40606,19 +40606,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>1237</v>
       </c>
       <c r="D34">
-        <v>1.804123711340206</v>
+        <v>53.13573883161512</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>1237</v>
       </c>
       <c r="G34">
-        <v>1.804123711340206</v>
+        <v>53.13573883161512</v>
       </c>
       <c r="H34">
         <v>1726</v>
@@ -40644,19 +40644,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>5.090595340811044</v>
+        <v>5.392579810181191</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G35">
-        <v>0.3451251078515962</v>
+        <v>0.992234685073339</v>
       </c>
       <c r="H35">
         <v>31</v>
@@ -40872,19 +40872,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>71</v>
+        <v>1192</v>
       </c>
       <c r="D41">
-        <v>3.062985332182916</v>
+        <v>51.42364106988784</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>71</v>
+        <v>1192</v>
       </c>
       <c r="G41">
-        <v>3.062985332182916</v>
+        <v>51.42364106988784</v>
       </c>
       <c r="H41">
         <v>2146</v>
@@ -40910,19 +40910,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>1187</v>
       </c>
       <c r="D42">
-        <v>2.415875754961173</v>
+        <v>51.20793787748059</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>56</v>
+        <v>1187</v>
       </c>
       <c r="G42">
-        <v>2.415875754961173</v>
+        <v>51.20793787748059</v>
       </c>
       <c r="H42">
         <v>37</v>
@@ -41024,19 +41024,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1431</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>61.73425366695427</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1431</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>61.73425366695427</v>
       </c>
       <c r="H45">
         <v>2183</v>
@@ -41442,19 +41442,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1180</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>50.90595340811043</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>1180</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>50.90595340811043</v>
       </c>
       <c r="H56">
         <v>1966</v>
@@ -42484,19 +42484,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.2157031924072476</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -42674,10 +42674,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>0.5998286203941731</v>
+        <v>0.6855184233076265</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -42797,10 +42797,10 @@
         <v>116</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>0.5176876617773942</v>
+        <v>0.5608283002588439</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -43830,19 +43830,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>1.553062985332183</v>
+        <v>1.337359792924935</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>1.855047454702329</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -44818,10 +44818,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>0.6855184233076265</v>
+        <v>0.8140531276778064</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -45160,19 +45160,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D41">
-        <v>3.321829163071614</v>
+        <v>3.494391716997411</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G41">
-        <v>3.321829163071614</v>
+        <v>3.494391716997411</v>
       </c>
       <c r="H41">
         <v>115</v>
@@ -45936,19 +45936,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>3.451251078515962</v>
+        <v>3.408110440034513</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G5">
-        <v>5.090595340811044</v>
+        <v>5.349439171699741</v>
       </c>
       <c r="H5">
         <v>128</v>
@@ -46278,19 +46278,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>2.976704055220017</v>
+        <v>2.890422778257118</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G14">
-        <v>4.357204486626403</v>
+        <v>4.098360655737705</v>
       </c>
       <c r="H14">
         <v>109</v>
@@ -47076,19 +47076,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D35">
-        <v>5.392579810181191</v>
+        <v>5.47886108714409</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>1.035375323554788</v>
+        <v>1.207937877480587</v>
       </c>
       <c r="H35">
         <v>50</v>
@@ -50718,19 +50718,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>2.027610008628128</v>
+        <v>1.855047454702329</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G18">
-        <v>2.027610008628128</v>
+        <v>1.855047454702329</v>
       </c>
       <c r="H18">
         <v>42</v>
@@ -51259,10 +51259,10 @@
         <v>34</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G32">
-        <v>0.7712082262210797</v>
+        <v>1.156812339331619</v>
       </c>
       <c r="H32">
         <v>32</v>
@@ -52368,10 +52368,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>4.141501294219154</v>
+        <v>4.184641932700604</v>
       </c>
       <c r="E5">
         <v>117</v>
@@ -53204,19 +53204,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.6902502157031924</v>
+        <v>0.2157031924072476</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>0.992234685073339</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H27">
         <v>17</v>
@@ -58800,19 +58800,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>3.149266609145815</v>
+        <v>3.62381363244176</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G5">
-        <v>4.745470232959448</v>
+        <v>5.608283002588439</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -58838,19 +58838,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>1.596203623813633</v>
+        <v>1.855047454702329</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>1406</v>
       </c>
       <c r="G6">
-        <v>1.898188093183779</v>
+        <v>60.65573770491803</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -59142,19 +59142,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>2.588438308886972</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G14">
-        <v>3.796376186367558</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -59256,19 +59256,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -59294,19 +59294,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1521</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>65.61691113028473</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>1521</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>65.61691113028473</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -59332,19 +59332,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1402</v>
       </c>
       <c r="D19">
-        <v>0.3879310344827586</v>
+        <v>60.43103448275862</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>1402</v>
       </c>
       <c r="G19">
-        <v>0.3879310344827586</v>
+        <v>60.43103448275862</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -59636,19 +59636,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.90595340811044</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -59674,19 +59674,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="D28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="G28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -59712,19 +59712,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="D29">
-        <v>0.1718213058419244</v>
+        <v>55.28350515463918</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="G29">
-        <v>0.1718213058419244</v>
+        <v>55.28350515463918</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -59902,19 +59902,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>1261</v>
       </c>
       <c r="D34">
-        <v>1.804123711340206</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>1261</v>
       </c>
       <c r="G34">
-        <v>1.804123711340206</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -60168,19 +60168,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>1866</v>
       </c>
       <c r="D41">
-        <v>3.235547886108715</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>1866</v>
       </c>
       <c r="G41">
-        <v>3.235547886108715</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -60206,19 +60206,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="D42">
-        <v>2.415875754961173</v>
+        <v>57.98101811906816</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>56</v>
+        <v>1344</v>
       </c>
       <c r="G42">
-        <v>2.415875754961173</v>
+        <v>57.98101811906816</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -60320,19 +60320,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>83.00258843830889</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1924</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>83.00258843830889</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -60472,19 +60472,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="D49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="G49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -60738,19 +60738,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>65.87575496117343</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>65.87575496117343</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -60944,19 +60944,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>3.235547886108715</v>
+        <v>3.753235547886109</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>113</v>
+        <v>1028</v>
       </c>
       <c r="G5">
-        <v>4.874892148403796</v>
+        <v>44.34857635893012</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -60991,10 +60991,10 @@
         <v>185</v>
       </c>
       <c r="F6">
-        <v>44</v>
+        <v>1373</v>
       </c>
       <c r="G6">
-        <v>1.898188093183779</v>
+        <v>59.2320966350302</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -61286,19 +61286,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>2.67471958584987</v>
+        <v>3.106125970664366</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G14">
-        <v>3.925798101811907</v>
+        <v>4.788610871440897</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -61400,19 +61400,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0.1288659793814433</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -61438,19 +61438,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>1866</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -61476,19 +61476,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1389</v>
       </c>
       <c r="D19">
-        <v>0.3879310344827586</v>
+        <v>59.87068965517241</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>1389</v>
       </c>
       <c r="G19">
-        <v>0.3879310344827586</v>
+        <v>59.87068965517241</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -61780,19 +61780,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0.08628127696289906</v>
+        <v>0.90595340811044</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>0.1725625539257981</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -61818,19 +61818,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="D28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>897</v>
       </c>
       <c r="G28">
-        <v>0.1298139333621809</v>
+        <v>38.81436607529209</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -61856,19 +61856,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1314</v>
       </c>
       <c r="D29">
-        <v>0.1718213058419244</v>
+        <v>56.44329896907217</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1314</v>
       </c>
       <c r="G29">
-        <v>0.1718213058419244</v>
+        <v>56.44329896907217</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -62046,19 +62046,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>1256</v>
       </c>
       <c r="D34">
-        <v>1.804123711340206</v>
+        <v>53.95189003436426</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>1256</v>
       </c>
       <c r="G34">
-        <v>1.804123711340206</v>
+        <v>53.95189003436426</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -62312,19 +62312,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>75</v>
+        <v>1999</v>
       </c>
       <c r="D41">
-        <v>3.235547886108715</v>
+        <v>86.2381363244176</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>1999</v>
       </c>
       <c r="G41">
-        <v>3.235547886108715</v>
+        <v>86.2381363244176</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -62350,19 +62350,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>1285</v>
       </c>
       <c r="D42">
-        <v>2.415875754961173</v>
+        <v>55.43572044866264</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>56</v>
+        <v>1285</v>
       </c>
       <c r="G42">
-        <v>2.415875754961173</v>
+        <v>55.43572044866264</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -62464,19 +62464,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>1926</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>83.08886971527178</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>1926</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>83.08886971527178</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -62616,19 +62616,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="D49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>912</v>
       </c>
       <c r="G49">
-        <v>0.08628127696289906</v>
+        <v>39.34426229508197</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -62882,19 +62882,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>1866</v>
       </c>
       <c r="D56">
-        <v>2.027610008628128</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>47</v>
+        <v>1866</v>
       </c>
       <c r="G56">
-        <v>2.027610008628128</v>
+        <v>80.50043140638481</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -63088,10 +63088,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>3.106125970664366</v>
+        <v>2.847282139775669</v>
       </c>
       <c r="E5">
         <v>117</v>
@@ -63430,10 +63430,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>2.631578947368421</v>
+        <v>2.372735116479724</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -64114,10 +64114,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>0.8140531276778064</v>
+        <v>1.113967437874893</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -64228,19 +64228,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>5.090595340811044</v>
+        <v>5.392579810181191</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G35">
-        <v>0.3451251078515962</v>
+        <v>1.035375323554788</v>
       </c>
       <c r="H35">
         <v>8</v>

--- a/experiment_results/DataV2_0.5/ZipMe/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_0.5/ZipMe/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -1254,10 +1254,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>2.890422778257118</v>
+        <v>3.019844693701467</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -3398,10 +3398,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>3.019844693701467</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -3892,19 +3892,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.2157031924072476</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0.3451251078515962</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -4082,10 +4082,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>0.8140531276778064</v>
+        <v>0.5998286203941731</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -4196,19 +4196,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>5.43572044866264</v>
+        <v>5.133735979292493</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>1.207937877480587</v>
+        <v>0.5608283002588439</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -5238,19 +5238,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>1.553062985332183</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>1.984469370146678</v>
+        <v>2.113891285591027</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -6036,19 +6036,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.2157031924072476</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0.3451251078515962</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -6226,10 +6226,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>0.8140531276778064</v>
+        <v>0.5998286203941731</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -6340,19 +6340,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D35">
-        <v>5.694564279551337</v>
+        <v>5.780845556514237</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G35">
-        <v>2.372735116479724</v>
+        <v>2.71786022433132</v>
       </c>
       <c r="H35">
         <v>105</v>
@@ -7344,19 +7344,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>4.098360655737705</v>
+        <v>4.055220017256255</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5">
-        <v>6.212251941328732</v>
+        <v>6.125970664365832</v>
       </c>
       <c r="H5">
         <v>164</v>
@@ -7391,10 +7391,10 @@
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1355</v>
+        <v>83</v>
       </c>
       <c r="G6">
-        <v>58.45556514236411</v>
+        <v>3.580672993960311</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -7800,19 +7800,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -7838,19 +7838,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1570</v>
+        <v>88</v>
       </c>
       <c r="D18">
-        <v>67.73080241587576</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1570</v>
+        <v>88</v>
       </c>
       <c r="G18">
-        <v>67.73080241587576</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="H18">
         <v>1828</v>
@@ -7876,19 +7876,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1202</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>51.81034482758621</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1202</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>51.81034482758621</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -8180,19 +8180,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>1.078515962036238</v>
+        <v>0.2157031924072476</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>1.682484900776531</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -8446,19 +8446,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1176</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>50.51546391752577</v>
+        <v>2.362542955326461</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1176</v>
+        <v>55</v>
       </c>
       <c r="G34">
-        <v>50.51546391752577</v>
+        <v>2.362542955326461</v>
       </c>
       <c r="H34">
         <v>1633</v>
@@ -8484,19 +8484,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D35">
-        <v>5.823986194995686</v>
+        <v>5.43572044866264</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>2.372735116479724</v>
+        <v>1.207937877480587</v>
       </c>
       <c r="H35">
         <v>123</v>
@@ -8712,19 +8712,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1567</v>
+        <v>92</v>
       </c>
       <c r="D41">
-        <v>67.6013805004314</v>
+        <v>3.968938740293356</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1567</v>
+        <v>92</v>
       </c>
       <c r="G41">
-        <v>67.6013805004314</v>
+        <v>3.968938740293356</v>
       </c>
       <c r="H41">
         <v>2138</v>
@@ -8750,19 +8750,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1165</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>50.2588438308887</v>
+        <v>2.588438308886972</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1165</v>
+        <v>60</v>
       </c>
       <c r="G42">
-        <v>50.2588438308887</v>
+        <v>2.588438308886972</v>
       </c>
       <c r="H42">
         <v>42</v>
@@ -8864,19 +8864,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1455</v>
+        <v>105</v>
       </c>
       <c r="D45">
-        <v>62.76962899050906</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1455</v>
+        <v>105</v>
       </c>
       <c r="G45">
-        <v>62.76962899050906</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H45">
         <v>2177</v>
@@ -9282,19 +9282,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1565</v>
+        <v>90</v>
       </c>
       <c r="D56">
-        <v>67.51509922346851</v>
+        <v>3.882657463330457</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1565</v>
+        <v>90</v>
       </c>
       <c r="G56">
-        <v>67.51509922346851</v>
+        <v>3.882657463330457</v>
       </c>
       <c r="H56">
         <v>1828</v>
@@ -9488,19 +9488,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>4.098360655737705</v>
+        <v>4.055220017256255</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5">
-        <v>6.212251941328732</v>
+        <v>6.125970664365832</v>
       </c>
       <c r="H5">
         <v>164</v>
@@ -9535,10 +9535,10 @@
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1355</v>
+        <v>83</v>
       </c>
       <c r="G6">
-        <v>58.45556514236411</v>
+        <v>3.580672993960311</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -9944,19 +9944,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -9982,19 +9982,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1570</v>
+        <v>88</v>
       </c>
       <c r="D18">
-        <v>67.73080241587576</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1570</v>
+        <v>88</v>
       </c>
       <c r="G18">
-        <v>67.73080241587576</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="H18">
         <v>1828</v>
@@ -10020,19 +10020,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1202</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>51.81034482758621</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1202</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>51.81034482758621</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -10324,19 +10324,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>1.078515962036238</v>
+        <v>0.2157031924072476</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>1.682484900776531</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -10590,19 +10590,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1176</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>50.51546391752577</v>
+        <v>2.362542955326461</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1176</v>
+        <v>55</v>
       </c>
       <c r="G34">
-        <v>50.51546391752577</v>
+        <v>2.362542955326461</v>
       </c>
       <c r="H34">
         <v>1633</v>
@@ -10628,19 +10628,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D35">
-        <v>5.823986194995686</v>
+        <v>5.43572044866264</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>2.372735116479724</v>
+        <v>1.207937877480587</v>
       </c>
       <c r="H35">
         <v>123</v>
@@ -10856,19 +10856,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1567</v>
+        <v>92</v>
       </c>
       <c r="D41">
-        <v>67.6013805004314</v>
+        <v>3.968938740293356</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1567</v>
+        <v>92</v>
       </c>
       <c r="G41">
-        <v>67.6013805004314</v>
+        <v>3.968938740293356</v>
       </c>
       <c r="H41">
         <v>2138</v>
@@ -10894,19 +10894,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1165</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>50.2588438308887</v>
+        <v>2.588438308886972</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1165</v>
+        <v>60</v>
       </c>
       <c r="G42">
-        <v>50.2588438308887</v>
+        <v>2.588438308886972</v>
       </c>
       <c r="H42">
         <v>42</v>
@@ -11008,19 +11008,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1455</v>
+        <v>105</v>
       </c>
       <c r="D45">
-        <v>62.76962899050906</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1455</v>
+        <v>105</v>
       </c>
       <c r="G45">
-        <v>62.76962899050906</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H45">
         <v>2177</v>
@@ -11426,19 +11426,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1565</v>
+        <v>90</v>
       </c>
       <c r="D56">
-        <v>67.51509922346851</v>
+        <v>3.882657463330457</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1565</v>
+        <v>90</v>
       </c>
       <c r="G56">
-        <v>67.51509922346851</v>
+        <v>3.882657463330457</v>
       </c>
       <c r="H56">
         <v>1828</v>
@@ -11632,10 +11632,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>4.012079378774805</v>
+        <v>3.925798101811907</v>
       </c>
       <c r="E5">
         <v>117</v>
@@ -11670,19 +11670,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>1.207937877480587</v>
+        <v>1.251078515962036</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>1.423641069887834</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -11784,19 +11784,19 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>0.819672131147541</v>
+        <v>0.4314063848144953</v>
       </c>
       <c r="E9">
         <v>87</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>1.380500431406385</v>
+        <v>0.6471095772217429</v>
       </c>
       <c r="H9">
         <v>21</v>
@@ -11974,10 +11974,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>3.537532355478861</v>
+        <v>3.451251078515962</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -12658,10 +12658,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>0.8140531276778064</v>
+        <v>0.5998286203941731</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -13152,19 +13152,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>4.270923209663503</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>4.270923209663503</v>
       </c>
       <c r="H45">
         <v>122</v>
@@ -18064,19 +18064,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>3.62381363244176</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G5">
-        <v>5.52200172562554</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -18102,19 +18102,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>1.768766177739431</v>
+        <v>1.596203623813633</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1417</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>61.13028472821398</v>
+        <v>1.898188093183779</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -18406,19 +18406,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>2.976704055220017</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G14">
-        <v>4.5297670405522</v>
+        <v>3.580672993960311</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -18520,19 +18520,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -18558,19 +18558,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1513</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>65.27178602243313</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1513</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>65.27178602243313</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -18596,19 +18596,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1413</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>60.90517241379311</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1413</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>60.90517241379311</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -18900,19 +18900,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.90595340811044</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1.466781708369284</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -18938,19 +18938,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -18976,19 +18976,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>1007</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>43.25601374570447</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1007</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>43.25601374570447</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -19166,19 +19166,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1262</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>54.20962199312714</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1262</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>54.20962199312714</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -19204,19 +19204,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>5.43572044866264</v>
+        <v>5.133735979292493</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>1.164797238999137</v>
+        <v>0.5176876617773942</v>
       </c>
       <c r="H35">
         <v>2164</v>
@@ -19432,19 +19432,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1580</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>68.16220880069025</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1580</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>68.16220880069025</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -19470,19 +19470,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1346</v>
+        <v>53</v>
       </c>
       <c r="D42">
-        <v>58.06729939603106</v>
+        <v>2.286453839516825</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1346</v>
+        <v>53</v>
       </c>
       <c r="G42">
-        <v>58.06729939603106</v>
+        <v>2.286453839516825</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -19584,19 +19584,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1806</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>77.91199309749784</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1806</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>77.91199309749784</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -19736,19 +19736,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -20002,19 +20002,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1513</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>65.27178602243313</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1513</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>65.27178602243313</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -20246,19 +20246,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>1.337359792924935</v>
+        <v>1.553062985332183</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G6">
-        <v>1.639344262295082</v>
+        <v>1.855047454702329</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -21234,10 +21234,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>0.8140531276778064</v>
+        <v>0.6855184233076265</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -21576,19 +21576,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>3.494391716997411</v>
+        <v>3.321829163071614</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G41">
-        <v>3.494391716997411</v>
+        <v>3.321829163071614</v>
       </c>
       <c r="H41">
         <v>115</v>
@@ -22694,10 +22694,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>3.019844693701467</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -23188,19 +23188,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.2157031924072476</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0.3451251078515962</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -23378,10 +23378,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>0.8140531276778064</v>
+        <v>0.5998286203941731</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -23492,19 +23492,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>5.43572044866264</v>
+        <v>5.133735979292493</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>1.207937877480587</v>
+        <v>0.5608283002588439</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -24838,19 +24838,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>2.76100086281277</v>
+        <v>2.67471958584987</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G14">
-        <v>4.270923209663503</v>
+        <v>4.012079378774805</v>
       </c>
       <c r="H14">
         <v>118</v>
@@ -25522,19 +25522,19 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>0.8140531276778064</v>
+        <v>0.6426735218508998</v>
       </c>
       <c r="E32">
         <v>34</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>1.242502142245073</v>
+        <v>1.199657240788346</v>
       </c>
       <c r="H32">
         <v>32</v>
@@ -25645,10 +25645,10 @@
         <v>116</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>0.5608283002588439</v>
+        <v>0.5176876617773942</v>
       </c>
       <c r="H35">
         <v>79</v>
@@ -26640,19 +26640,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>3.62381363244176</v>
+        <v>3.149266609145815</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G5">
-        <v>5.608283002588439</v>
+        <v>4.745470232959448</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -26678,19 +26678,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>1.855047454702329</v>
+        <v>1.596203623813633</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1406</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>60.65573770491803</v>
+        <v>1.898188093183779</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -26982,19 +26982,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>2.976704055220017</v>
+        <v>2.588438308886972</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G14">
-        <v>4.5297670405522</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -27096,19 +27096,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -27134,19 +27134,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1521</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>65.61691113028473</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1521</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>65.61691113028473</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -27172,19 +27172,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1402</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>60.43103448275862</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1402</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>60.43103448275862</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -27476,19 +27476,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.90595340811044</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1.466781708369284</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -27514,19 +27514,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -27552,19 +27552,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>1287</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>55.28350515463918</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1287</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>55.28350515463918</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -27742,19 +27742,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1261</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>54.16666666666666</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1261</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>54.16666666666666</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -28008,19 +28008,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1866</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>80.50043140638481</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1866</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>80.50043140638481</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -28046,19 +28046,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>57.98101811906816</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>57.98101811906816</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -28160,19 +28160,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>83.00258843830889</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>83.00258843830889</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -28312,19 +28312,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -28578,19 +28578,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1527</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>65.87575496117343</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1527</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>65.87575496117343</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -28784,19 +28784,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>3.62381363244176</v>
+        <v>3.149266609145815</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G5">
-        <v>5.608283002588439</v>
+        <v>4.745470232959448</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -28822,19 +28822,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>1.855047454702329</v>
+        <v>1.596203623813633</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1406</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>60.65573770491803</v>
+        <v>1.898188093183779</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -29126,19 +29126,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>2.976704055220017</v>
+        <v>2.588438308886972</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G14">
-        <v>4.5297670405522</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -29240,19 +29240,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -29278,19 +29278,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1521</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>65.61691113028473</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1521</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>65.61691113028473</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -29316,19 +29316,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1402</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>60.43103448275862</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1402</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>60.43103448275862</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -29620,19 +29620,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.90595340811044</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1.466781708369284</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -29658,19 +29658,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -29696,19 +29696,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>1287</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>55.28350515463918</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1287</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>55.28350515463918</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -29886,19 +29886,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1261</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>54.16666666666666</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1261</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>54.16666666666666</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -30152,19 +30152,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1866</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>80.50043140638481</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1866</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>80.50043140638481</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -30190,19 +30190,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>57.98101811906816</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>57.98101811906816</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -30304,19 +30304,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>83.00258843830889</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>83.00258843830889</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -30456,19 +30456,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -30722,19 +30722,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1527</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>65.87575496117343</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1527</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>65.87575496117343</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -30928,19 +30928,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>3.66695427092321</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>1026</v>
+        <v>105</v>
       </c>
       <c r="G5">
-        <v>44.26229508196721</v>
+        <v>4.5297670405522</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -30966,19 +30966,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>1.596203623813633</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1362</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>58.75754961173425</v>
+        <v>1.725625539257981</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -31270,19 +31270,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>3.106125970664366</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G14">
-        <v>4.788610871440897</v>
+        <v>3.66695427092321</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -31384,19 +31384,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -31422,19 +31422,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1468</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>63.3304572907679</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1468</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>63.3304572907679</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -31460,19 +31460,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1398</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>60.25862068965517</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1398</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>60.25862068965517</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -31764,19 +31764,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>1.466781708369284</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>2.113891285591027</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -31802,19 +31802,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -31840,19 +31840,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>1007</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>43.25601374570447</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1007</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>43.25601374570447</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -32030,19 +32030,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1266</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>54.38144329896907</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1266</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>54.38144329896907</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -32068,19 +32068,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>5.47886108714409</v>
+        <v>5.133735979292493</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>1.380500431406385</v>
+        <v>0.5176876617773942</v>
       </c>
       <c r="H35">
         <v>2164</v>
@@ -32296,19 +32296,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1505</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>64.92666091458153</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1505</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>64.92666091458153</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -32334,19 +32334,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1217</v>
+        <v>53</v>
       </c>
       <c r="D42">
-        <v>52.50215703192407</v>
+        <v>2.286453839516825</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1217</v>
+        <v>53</v>
       </c>
       <c r="G42">
-        <v>52.50215703192407</v>
+        <v>2.286453839516825</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -32448,19 +32448,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1472</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>63.5030198446937</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1472</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>63.5030198446937</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -32600,19 +32600,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -32866,19 +32866,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1468</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>63.3304572907679</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1468</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>63.3304572907679</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -33566,19 +33566,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>2.157031924072476</v>
+        <v>1.984469370146678</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G18">
-        <v>2.157031924072476</v>
+        <v>1.984469370146678</v>
       </c>
       <c r="H18">
         <v>42</v>
@@ -34098,10 +34098,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>0.6855184233076265</v>
+        <v>0.5998286203941731</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -34221,10 +34221,10 @@
         <v>116</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>0.5608283002588439</v>
+        <v>0.5176876617773942</v>
       </c>
       <c r="H35">
         <v>14</v>
@@ -35216,19 +35216,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>3.796376186367558</v>
+        <v>3.66695427092321</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G5">
-        <v>5.565142364106989</v>
+        <v>5.349439171699741</v>
       </c>
       <c r="H5">
         <v>128</v>
@@ -35254,19 +35254,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>1.121656600517688</v>
+        <v>1.941328731665229</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G6">
-        <v>3.192407247627265</v>
+        <v>2.329594477998274</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -35558,19 +35558,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>3.278688524590164</v>
+        <v>3.019844693701467</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G14">
-        <v>4.659188955996549</v>
+        <v>4.443485763589301</v>
       </c>
       <c r="H14">
         <v>109</v>
@@ -36356,19 +36356,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>5.090595340811044</v>
+        <v>5.392579810181191</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G35">
-        <v>0.3451251078515962</v>
+        <v>1.035375323554788</v>
       </c>
       <c r="H35">
         <v>50</v>
@@ -36736,19 +36736,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45">
-        <v>4.314063848144952</v>
+        <v>4.270923209663503</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45">
-        <v>4.314063848144952</v>
+        <v>4.270923209663503</v>
       </c>
       <c r="H45">
         <v>95</v>
@@ -37154,19 +37154,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>2.157031924072476</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>2.157031924072476</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>42</v>
@@ -37360,19 +37360,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>3.62381363244176</v>
+        <v>3.149266609145815</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G5">
-        <v>5.608283002588439</v>
+        <v>4.745470232959448</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -37398,19 +37398,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>1.855047454702329</v>
+        <v>1.596203623813633</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1406</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>60.65573770491803</v>
+        <v>1.898188093183779</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -37702,19 +37702,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>2.976704055220017</v>
+        <v>2.588438308886972</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G14">
-        <v>4.5297670405522</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -37816,19 +37816,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -37854,19 +37854,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1521</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>65.61691113028473</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1521</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>65.61691113028473</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -37892,19 +37892,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1402</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>60.43103448275862</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1402</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>60.43103448275862</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -38196,19 +38196,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.90595340811044</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1.466781708369284</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -38234,19 +38234,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -38272,19 +38272,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>1287</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>55.28350515463918</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1287</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>55.28350515463918</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -38462,19 +38462,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1261</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>54.16666666666666</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1261</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>54.16666666666666</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -38728,19 +38728,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1866</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>80.50043140638481</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1866</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>80.50043140638481</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -38766,19 +38766,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>57.98101811906816</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>57.98101811906816</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -38880,19 +38880,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>83.00258843830889</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>83.00258843830889</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -39032,19 +39032,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -39298,19 +39298,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1527</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>65.87575496117343</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1527</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>65.87575496117343</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -39504,19 +39504,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>3.537532355478861</v>
+        <v>3.106125970664366</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G5">
-        <v>5.263157894736842</v>
+        <v>4.6160483175151</v>
       </c>
       <c r="H5">
         <v>148</v>
@@ -39542,19 +39542,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>1.639344262295082</v>
+        <v>1.466781708369284</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1228</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>52.97670405522001</v>
+        <v>1.768766177739431</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -39846,19 +39846,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>3.019844693701467</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G14">
-        <v>4.443485763589301</v>
+        <v>3.882657463330457</v>
       </c>
       <c r="H14">
         <v>111</v>
@@ -39960,19 +39960,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.2577319587628866</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.2577319587628866</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -39998,19 +39998,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1180</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>50.90595340811043</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1180</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>50.90595340811043</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>1968</v>
@@ -40036,19 +40036,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1377</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>59.35344827586206</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1377</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>59.35344827586206</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -40340,19 +40340,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.90595340811044</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1.466781708369284</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -40416,19 +40416,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>920</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>39.51890034364261</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>920</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>39.51890034364261</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -40606,19 +40606,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1237</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>53.13573883161512</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1237</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>53.13573883161512</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="H34">
         <v>1726</v>
@@ -40644,19 +40644,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D35">
-        <v>5.392579810181191</v>
+        <v>5.090595340811044</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>0.992234685073339</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H35">
         <v>31</v>
@@ -40872,19 +40872,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1192</v>
+        <v>71</v>
       </c>
       <c r="D41">
-        <v>51.42364106988784</v>
+        <v>3.062985332182916</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1192</v>
+        <v>71</v>
       </c>
       <c r="G41">
-        <v>51.42364106988784</v>
+        <v>3.062985332182916</v>
       </c>
       <c r="H41">
         <v>2146</v>
@@ -40910,19 +40910,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1187</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>51.20793787748059</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1187</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>51.20793787748059</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="H42">
         <v>37</v>
@@ -41024,19 +41024,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1431</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>61.73425366695427</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1431</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>61.73425366695427</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>2183</v>
@@ -41442,19 +41442,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1180</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>50.90595340811043</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1180</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>50.90595340811043</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>1966</v>
@@ -42484,19 +42484,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.2157031924072476</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0.3451251078515962</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -42674,10 +42674,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>0.6855184233076265</v>
+        <v>0.5998286203941731</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -42797,10 +42797,10 @@
         <v>116</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>0.5608283002588439</v>
+        <v>0.5176876617773942</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -43830,19 +43830,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>1.337359792924935</v>
+        <v>1.553062985332183</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G6">
-        <v>1.639344262295082</v>
+        <v>1.855047454702329</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -44818,10 +44818,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>0.8140531276778064</v>
+        <v>0.6855184233076265</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -45160,19 +45160,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>3.494391716997411</v>
+        <v>3.321829163071614</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G41">
-        <v>3.494391716997411</v>
+        <v>3.321829163071614</v>
       </c>
       <c r="H41">
         <v>115</v>
@@ -45936,19 +45936,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>3.408110440034513</v>
+        <v>3.451251078515962</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G5">
-        <v>5.349439171699741</v>
+        <v>5.090595340811044</v>
       </c>
       <c r="H5">
         <v>128</v>
@@ -46278,19 +46278,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>2.890422778257118</v>
+        <v>2.976704055220017</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G14">
-        <v>4.098360655737705</v>
+        <v>4.357204486626403</v>
       </c>
       <c r="H14">
         <v>109</v>
@@ -47076,19 +47076,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>5.47886108714409</v>
+        <v>5.392579810181191</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G35">
-        <v>1.207937877480587</v>
+        <v>1.035375323554788</v>
       </c>
       <c r="H35">
         <v>50</v>
@@ -50718,19 +50718,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>1.855047454702329</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G18">
-        <v>1.855047454702329</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H18">
         <v>42</v>
@@ -51259,10 +51259,10 @@
         <v>34</v>
       </c>
       <c r="F32">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G32">
-        <v>1.156812339331619</v>
+        <v>0.7712082262210797</v>
       </c>
       <c r="H32">
         <v>32</v>
@@ -52368,10 +52368,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>4.184641932700604</v>
+        <v>4.141501294219154</v>
       </c>
       <c r="E5">
         <v>117</v>
@@ -53204,19 +53204,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>0.2157031924072476</v>
+        <v>0.6902502157031924</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G27">
-        <v>0.3451251078515962</v>
+        <v>0.992234685073339</v>
       </c>
       <c r="H27">
         <v>17</v>
@@ -58800,19 +58800,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>3.62381363244176</v>
+        <v>3.149266609145815</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G5">
-        <v>5.608283002588439</v>
+        <v>4.745470232959448</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -58838,19 +58838,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>1.855047454702329</v>
+        <v>1.596203623813633</v>
       </c>
       <c r="E6">
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1406</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>60.65573770491803</v>
+        <v>1.898188093183779</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -59142,19 +59142,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>2.976704055220017</v>
+        <v>2.588438308886972</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G14">
-        <v>4.5297670405522</v>
+        <v>3.796376186367558</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -59256,19 +59256,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -59294,19 +59294,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1521</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>65.61691113028473</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1521</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>65.61691113028473</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -59332,19 +59332,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1402</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>60.43103448275862</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1402</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>60.43103448275862</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -59636,19 +59636,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.90595340811044</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1.466781708369284</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -59674,19 +59674,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -59712,19 +59712,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>1287</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>55.28350515463918</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1287</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>55.28350515463918</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -59902,19 +59902,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1261</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>54.16666666666666</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1261</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>54.16666666666666</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -60168,19 +60168,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1866</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>80.50043140638481</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1866</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>80.50043140638481</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -60206,19 +60206,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>57.98101811906816</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>57.98101811906816</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -60320,19 +60320,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>83.00258843830889</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>83.00258843830889</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -60472,19 +60472,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -60738,19 +60738,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1527</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>65.87575496117343</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1527</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>65.87575496117343</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -60944,19 +60944,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>3.753235547886109</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="E5">
         <v>117</v>
       </c>
       <c r="F5">
-        <v>1028</v>
+        <v>113</v>
       </c>
       <c r="G5">
-        <v>44.34857635893012</v>
+        <v>4.874892148403796</v>
       </c>
       <c r="H5">
         <v>2179</v>
@@ -60991,10 +60991,10 @@
         <v>185</v>
       </c>
       <c r="F6">
-        <v>1373</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>59.2320966350302</v>
+        <v>1.898188093183779</v>
       </c>
       <c r="H6">
         <v>1898</v>
@@ -61286,19 +61286,19 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>3.106125970664366</v>
+        <v>2.67471958584987</v>
       </c>
       <c r="E14">
         <v>116</v>
       </c>
       <c r="F14">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="G14">
-        <v>4.788610871440897</v>
+        <v>3.925798101811907</v>
       </c>
       <c r="H14">
         <v>2146</v>
@@ -61400,19 +61400,19 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.1718213058419244</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -61438,19 +61438,19 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>1866</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>80.50043140638481</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1866</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>80.50043140638481</v>
+        <v>2.157031924072476</v>
       </c>
       <c r="H18">
         <v>2073</v>
@@ -61476,19 +61476,19 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>1389</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>59.87068965517241</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1389</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>59.87068965517241</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="H19">
         <v>1929</v>
@@ -61780,19 +61780,19 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.90595340811044</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E27">
         <v>118</v>
       </c>
       <c r="F27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1.466781708369284</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="H27">
         <v>2132</v>
@@ -61818,19 +61818,19 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>38.81436607529209</v>
+        <v>0.1298139333621809</v>
       </c>
       <c r="H28">
         <v>1572</v>
@@ -61856,19 +61856,19 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>1314</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>56.44329896907217</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1314</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>56.44329896907217</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="H29">
         <v>1973</v>
@@ -62046,19 +62046,19 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>1256</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>53.95189003436426</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1256</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>53.95189003436426</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="H34">
         <v>1914</v>
@@ -62312,19 +62312,19 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>1999</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>86.2381363244176</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1999</v>
+        <v>75</v>
       </c>
       <c r="G41">
-        <v>86.2381363244176</v>
+        <v>3.235547886108715</v>
       </c>
       <c r="H41">
         <v>2148</v>
@@ -62350,19 +62350,19 @@
         <v>94</v>
       </c>
       <c r="C42">
-        <v>1285</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>55.43572044866264</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1285</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>55.43572044866264</v>
+        <v>2.415875754961173</v>
       </c>
       <c r="H42">
         <v>1793</v>
@@ -62464,19 +62464,19 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>1926</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>83.08886971527178</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1926</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>83.08886971527178</v>
+        <v>4.314063848144952</v>
       </c>
       <c r="H45">
         <v>2185</v>
@@ -62616,19 +62616,19 @@
         <v>108</v>
       </c>
       <c r="C49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>39.34426229508197</v>
+        <v>0.08628127696289906</v>
       </c>
       <c r="H49">
         <v>1789</v>
@@ -62882,19 +62882,19 @@
         <v>122</v>
       </c>
       <c r="C56">
-        <v>1866</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>80.50043140638481</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1866</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>80.50043140638481</v>
+        <v>2.027610008628128</v>
       </c>
       <c r="H56">
         <v>2072</v>
@@ -63088,10 +63088,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>2.847282139775669</v>
+        <v>3.106125970664366</v>
       </c>
       <c r="E5">
         <v>117</v>
@@ -63430,10 +63430,10 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>2.372735116479724</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E14">
         <v>116</v>
@@ -64114,10 +64114,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>1.113967437874893</v>
+        <v>0.8140531276778064</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -64228,19 +64228,19 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D35">
-        <v>5.392579810181191</v>
+        <v>5.090595340811044</v>
       </c>
       <c r="E35">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>1.035375323554788</v>
+        <v>0.3451251078515962</v>
       </c>
       <c r="H35">
         <v>8</v>
